--- a/experiment_definition_draft.xlsx
+++ b/experiment_definition_draft.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgpel\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{375C17EE-B430-4B79-BADD-441D42E70540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_7E4E55BF84DCCEE3ED7FF6F99031F45BFA722949" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8845DD8F-D9B3-4D19-8897-43153EF35DA6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6590C572-5742-44F3-86CE-1D987A8827A6}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>Sample UUID</t>
   </si>
@@ -44,35 +39,59 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Dispense rate [uL/S]</t>
+    <t>Stock Solution UUID</t>
+  </si>
+  <si>
+    <t>Stock Location</t>
   </si>
   <si>
     <t>Volume dispensed [uL]</t>
   </si>
   <si>
-    <t>Stock Solution UUID</t>
+    <t>Dispense offset from center X [mm]</t>
   </si>
   <si>
-    <t>test_sample</t>
+    <t>Dispense offset from center Y [mm]</t>
   </si>
   <si>
-    <t xml:space="preserve">(2,2) </t>
+    <t>Dispense rate [uL/S]</t>
   </si>
   <si>
-    <t xml:space="preserve">Dispense offset from center [X, Y] [mm] </t>
+    <t>stock_1</t>
+  </si>
+  <si>
+    <t>stock_2</t>
+  </si>
+  <si>
+    <t>stock_3</t>
+  </si>
+  <si>
+    <t>stock_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="System-Ui"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,14 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,13 +153,13 @@
         <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
         <a:srgbClr val="0F9ED5"/>
@@ -157,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,68 +445,1016 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06474BF5-8236-4BE5-96D3-5DA5123F3F55}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1234</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>300</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>300</v>
+      </c>
+      <c r="G33">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>300</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <v>300</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>300</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>300</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>300</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>300</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>300</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>300</v>
+      </c>
+      <c r="G42">
+        <v>1.5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>300</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>300</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>300</v>
+      </c>
+      <c r="G45">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>300</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>300</v>
+      </c>
+      <c r="G48">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>300</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
